--- a/src/assets/files/15.CalendarioAnual.xlsx
+++ b/src/assets/files/15.CalendarioAnual.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brquezada\Documents\projects\frontEnd\gui-mst-adt-web\src\assets\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avictoria\Documents\Proyectos\AgendaDigital\ARCHIVOS PRUEBA\oficiales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E007F2-141C-4996-8E9E-7B81E75D73A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75B177DF-0262-482C-9876-D06D811FD845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{76E7FC68-D242-465E-8EB4-3CC40106161F}"/>
   </bookViews>
@@ -505,12 +505,12 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.36328125" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -548,7 +548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -577,25 +577,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J26" s="1"/>
     </row>
-    <row r="42" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J43" s="1"/>
     </row>
-    <row r="52" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J52" s="1"/>
     </row>
-    <row r="65" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J65" s="1"/>
     </row>
-    <row r="190" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="190" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K190" s="1"/>
     </row>
-    <row r="191" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="191" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K191" s="1"/>
     </row>
   </sheetData>
@@ -611,18 +611,18 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="16.7265625" customWidth="1"/>
-    <col min="5" max="5" width="15.90625" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="7" width="30.6328125" customWidth="1"/>
+    <col min="7" max="7" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -645,7 +645,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>6</v>
       </c>
@@ -693,18 +693,18 @@
   <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1"/>
-    <col min="2" max="2" width="13.90625" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -730,7 +730,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -754,603 +754,606 @@
         <f>D2+VALUE("00:"&amp;E2&amp;":00")</f>
         <v>0.42708333333333337</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
       <c r="F6" s="3"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
       <c r="F7" s="3"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
       <c r="F8" s="3"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
       <c r="F9" s="3"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
       <c r="F10" s="3"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
       <c r="F11" s="3"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
       <c r="F12" s="3"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
       <c r="F13" s="3"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
       <c r="F14" s="3"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
       <c r="F15" s="3"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
       <c r="F16" s="3"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
       <c r="F17" s="3"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
       <c r="F18" s="3"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
       <c r="F19" s="3"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C20" s="3"/>
       <c r="D20" s="4"/>
       <c r="F20" s="3"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
       <c r="F21" s="3"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
       <c r="F22" s="3"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
       <c r="F23" s="3"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
       <c r="F24" s="3"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C25" s="3"/>
       <c r="D25" s="4"/>
       <c r="F25" s="3"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C26" s="3"/>
       <c r="D26" s="4"/>
       <c r="F26" s="3"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C27" s="3"/>
       <c r="D27" s="4"/>
       <c r="F27" s="3"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C28" s="3"/>
       <c r="D28" s="4"/>
       <c r="F28" s="3"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C29" s="3"/>
       <c r="D29" s="4"/>
       <c r="F29" s="3"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C30" s="3"/>
       <c r="D30" s="4"/>
       <c r="F30" s="3"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
       <c r="F31" s="3"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C32" s="3"/>
       <c r="D32" s="4"/>
       <c r="F32" s="3"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C33" s="3"/>
       <c r="D33" s="4"/>
       <c r="F33" s="3"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C34" s="3"/>
       <c r="D34" s="4"/>
       <c r="F34" s="3"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C35" s="3"/>
       <c r="D35" s="4"/>
       <c r="F35" s="3"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C36" s="3"/>
       <c r="D36" s="4"/>
       <c r="F36" s="3"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C37" s="3"/>
       <c r="D37" s="4"/>
       <c r="F37" s="3"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C38" s="3"/>
       <c r="D38" s="4"/>
       <c r="F38" s="3"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C39" s="3"/>
       <c r="D39" s="4"/>
       <c r="F39" s="3"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C40" s="3"/>
       <c r="D40" s="4"/>
       <c r="F40" s="3"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C41" s="3"/>
       <c r="D41" s="4"/>
       <c r="F41" s="3"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C42" s="3"/>
       <c r="D42" s="4"/>
       <c r="F42" s="3"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C43" s="3"/>
       <c r="D43" s="4"/>
       <c r="F43" s="3"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C44" s="3"/>
       <c r="D44" s="4"/>
       <c r="F44" s="3"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C45" s="3"/>
       <c r="D45" s="4"/>
       <c r="F45" s="3"/>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C46" s="3"/>
       <c r="D46" s="4"/>
       <c r="F46" s="3"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C47" s="3"/>
       <c r="D47" s="4"/>
       <c r="F47" s="3"/>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C48" s="3"/>
       <c r="D48" s="4"/>
       <c r="F48" s="3"/>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C49" s="3"/>
       <c r="D49" s="4"/>
       <c r="F49" s="3"/>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C50" s="3"/>
       <c r="D50" s="4"/>
       <c r="F50" s="3"/>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C51" s="3"/>
       <c r="D51" s="4"/>
       <c r="F51" s="3"/>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C52" s="3"/>
       <c r="D52" s="4"/>
       <c r="F52" s="3"/>
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C53" s="3"/>
       <c r="D53" s="4"/>
       <c r="F53" s="3"/>
       <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C54" s="3"/>
       <c r="D54" s="4"/>
       <c r="F54" s="3"/>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C55" s="3"/>
       <c r="D55" s="4"/>
       <c r="F55" s="3"/>
       <c r="G55" s="4"/>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C56" s="3"/>
       <c r="D56" s="4"/>
       <c r="F56" s="3"/>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C57" s="3"/>
       <c r="D57" s="4"/>
       <c r="F57" s="3"/>
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C58" s="3"/>
       <c r="D58" s="4"/>
       <c r="F58" s="3"/>
       <c r="G58" s="4"/>
     </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C59" s="3"/>
       <c r="D59" s="4"/>
       <c r="F59" s="3"/>
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C60" s="3"/>
       <c r="D60" s="4"/>
       <c r="F60" s="3"/>
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C61" s="3"/>
       <c r="D61" s="4"/>
       <c r="F61" s="3"/>
       <c r="G61" s="4"/>
     </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C62" s="3"/>
       <c r="D62" s="4"/>
       <c r="F62" s="3"/>
       <c r="G62" s="4"/>
     </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C63" s="3"/>
       <c r="D63" s="4"/>
       <c r="F63" s="3"/>
       <c r="G63" s="4"/>
     </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C64" s="3"/>
       <c r="D64" s="4"/>
       <c r="F64" s="3"/>
       <c r="G64" s="4"/>
     </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C65" s="3"/>
       <c r="D65" s="4"/>
       <c r="F65" s="3"/>
       <c r="G65" s="4"/>
     </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C66" s="3"/>
       <c r="D66" s="4"/>
       <c r="F66" s="3"/>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C67" s="3"/>
       <c r="D67" s="4"/>
       <c r="F67" s="3"/>
       <c r="G67" s="4"/>
     </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C68" s="3"/>
       <c r="D68" s="4"/>
       <c r="F68" s="3"/>
       <c r="G68" s="4"/>
     </row>
-    <row r="69" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C69" s="3"/>
       <c r="D69" s="4"/>
       <c r="F69" s="3"/>
       <c r="G69" s="4"/>
     </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C70" s="3"/>
       <c r="D70" s="4"/>
       <c r="F70" s="3"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C71" s="3"/>
       <c r="D71" s="4"/>
       <c r="F71" s="3"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C72" s="3"/>
       <c r="D72" s="4"/>
       <c r="F72" s="3"/>
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C73" s="3"/>
       <c r="D73" s="4"/>
       <c r="F73" s="3"/>
       <c r="G73" s="4"/>
     </row>
-    <row r="74" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C74" s="3"/>
       <c r="D74" s="4"/>
       <c r="F74" s="3"/>
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C75" s="3"/>
       <c r="D75" s="4"/>
       <c r="F75" s="3"/>
       <c r="G75" s="4"/>
     </row>
-    <row r="76" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C76" s="3"/>
       <c r="D76" s="4"/>
       <c r="F76" s="3"/>
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C77" s="3"/>
       <c r="D77" s="4"/>
       <c r="F77" s="3"/>
       <c r="G77" s="4"/>
     </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C78" s="3"/>
       <c r="D78" s="4"/>
       <c r="F78" s="3"/>
       <c r="G78" s="4"/>
     </row>
-    <row r="79" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C79" s="3"/>
       <c r="D79" s="4"/>
       <c r="F79" s="3"/>
       <c r="G79" s="4"/>
     </row>
-    <row r="80" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C80" s="3"/>
       <c r="D80" s="4"/>
       <c r="F80" s="3"/>
       <c r="G80" s="4"/>
     </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C81" s="3"/>
       <c r="D81" s="4"/>
       <c r="F81" s="3"/>
       <c r="G81" s="4"/>
     </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C82" s="3"/>
       <c r="D82" s="4"/>
       <c r="F82" s="3"/>
       <c r="G82" s="4"/>
     </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C83" s="3"/>
       <c r="D83" s="4"/>
       <c r="F83" s="3"/>
       <c r="G83" s="4"/>
     </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C84" s="3"/>
       <c r="D84" s="4"/>
       <c r="F84" s="3"/>
       <c r="G84" s="4"/>
     </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C85" s="3"/>
       <c r="D85" s="4"/>
       <c r="F85" s="3"/>
       <c r="G85" s="4"/>
     </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C86" s="3"/>
       <c r="D86" s="4"/>
       <c r="F86" s="3"/>
       <c r="G86" s="4"/>
     </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C87" s="3"/>
       <c r="D87" s="4"/>
       <c r="F87" s="3"/>
       <c r="G87" s="4"/>
     </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C88" s="3"/>
       <c r="D88" s="4"/>
       <c r="F88" s="3"/>
       <c r="G88" s="4"/>
     </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C89" s="3"/>
       <c r="D89" s="4"/>
       <c r="F89" s="3"/>
       <c r="G89" s="4"/>
     </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C90" s="3"/>
       <c r="D90" s="4"/>
       <c r="F90" s="3"/>
       <c r="G90" s="4"/>
     </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C91" s="3"/>
       <c r="D91" s="4"/>
       <c r="F91" s="3"/>
       <c r="G91" s="4"/>
     </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C92" s="3"/>
       <c r="D92" s="4"/>
       <c r="F92" s="3"/>
       <c r="G92" s="4"/>
     </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C93" s="3"/>
       <c r="D93" s="4"/>
       <c r="F93" s="3"/>
       <c r="G93" s="4"/>
     </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C94" s="3"/>
       <c r="D94" s="4"/>
       <c r="F94" s="3"/>
       <c r="G94" s="4"/>
     </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C95" s="3"/>
       <c r="D95" s="4"/>
       <c r="F95" s="3"/>
       <c r="G95" s="4"/>
     </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C96" s="3"/>
       <c r="D96" s="4"/>
       <c r="F96" s="3"/>
       <c r="G96" s="4"/>
     </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C97" s="3"/>
       <c r="D97" s="4"/>
       <c r="F97" s="3"/>
       <c r="G97" s="4"/>
     </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C98" s="3"/>
       <c r="D98" s="4"/>
       <c r="F98" s="3"/>
       <c r="G98" s="4"/>
     </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C99" s="3"/>
       <c r="D99" s="4"/>
       <c r="F99" s="3"/>
       <c r="G99" s="4"/>
     </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C100" s="3"/>
       <c r="D100" s="4"/>
       <c r="F100" s="3"/>
       <c r="G100" s="4"/>
     </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C101" s="3"/>
       <c r="D101" s="4"/>
       <c r="F101" s="3"/>
       <c r="G101" s="4"/>
     </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C102" s="3"/>
       <c r="D102" s="4"/>
       <c r="F102" s="3"/>
       <c r="G102" s="4"/>
     </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C103" s="3"/>
       <c r="D103" s="4"/>
       <c r="F103" s="3"/>
@@ -1397,21 +1400,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002047D94B5E73D04A80AA6844A59F543A" ma:contentTypeVersion="0" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="19f8b377e75dbac3c1f2314aec064948">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f6edc329ff236629c56e3b879b320d0">
     <xsd:element name="properties">
@@ -1525,10 +1513,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA352A83-CB83-418A-87A4-DE7F5968277D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EC26224-972D-4B00-B624-0625DBEFB70E}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -1543,16 +1553,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EC26224-972D-4B00-B624-0625DBEFB70E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA352A83-CB83-418A-87A4-DE7F5968277D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/src/assets/files/15.CalendarioAnual.xlsx
+++ b/src/assets/files/15.CalendarioAnual.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avictoria\Documents\Proyectos\AgendaDigital\ARCHIVOS PRUEBA\oficiales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75B177DF-0262-482C-9876-D06D811FD845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61943AF0-953C-4662-8A3F-44FA083CA7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{76E7FC68-D242-465E-8EB4-3CC40106161F}"/>
+    <workbookView xWindow="-16560" yWindow="-3274" windowWidth="16663" windowHeight="9017" activeTab="2" xr2:uid="{76E7FC68-D242-465E-8EB4-3CC40106161F}"/>
   </bookViews>
   <sheets>
-    <sheet name="A_servicios_especialidades" sheetId="1" r:id="rId1"/>
+    <sheet name="E_14_GRUPOS_Programas" sheetId="1" r:id="rId1"/>
     <sheet name="B_4_UBICACIONES" sheetId="2" r:id="rId2"/>
     <sheet name="F_CalendarioAnual" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -37,46 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
-  <si>
-    <t>CLAVE ESPECIALIDAD</t>
-  </si>
-  <si>
-    <t>DESCRIPCIÓN ESPECIALIDAD</t>
-  </si>
-  <si>
-    <t>IND_CE</t>
-  </si>
-  <si>
-    <t>IND_HOSP</t>
-  </si>
-  <si>
-    <t>IND_IQ</t>
-  </si>
-  <si>
-    <t>IND_NIVEL1</t>
-  </si>
-  <si>
-    <t>IND_NIVEL2</t>
-  </si>
-  <si>
-    <t>IND_NIVEL3</t>
-  </si>
-  <si>
-    <t>IND_CSS</t>
-  </si>
-  <si>
-    <t>FEC_BAJA</t>
-  </si>
-  <si>
-    <t>FEC_ALTA</t>
-  </si>
-  <si>
-    <t>FEC_ACTUALIZACION</t>
-  </si>
-  <si>
-    <t>AC01</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="76">
   <si>
     <t xml:space="preserve">Atención Médica Continúa </t>
   </si>
@@ -108,9 +69,6 @@
     <t>Trab_Social_01</t>
   </si>
   <si>
-    <t>SERVICIOS / ESPECIALIDADES</t>
-  </si>
-  <si>
     <t>UBICACIÓN</t>
   </si>
   <si>
@@ -132,13 +90,181 @@
     <t>MAXIMO DE PARTICIPANTES</t>
   </si>
   <si>
-    <t>Adulto Mayores</t>
-  </si>
-  <si>
     <t>Consultorio</t>
   </si>
   <si>
     <t>UMF12</t>
+  </si>
+  <si>
+    <t>PROGRAMA</t>
+  </si>
+  <si>
+    <t>VIH</t>
+  </si>
+  <si>
+    <t>DESCRIPCION GRUPO / PROGRAMA</t>
+  </si>
+  <si>
+    <t>CODIGO</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ACTIVIDAD</t>
+  </si>
+  <si>
+    <t>Tour  Quirúrgico</t>
+  </si>
+  <si>
+    <t>TS2.C</t>
+  </si>
+  <si>
+    <t>Tour Quirúrgico</t>
+  </si>
+  <si>
+    <t>Trabajo Social</t>
+  </si>
+  <si>
+    <t>Tour Obstétrico</t>
+  </si>
+  <si>
+    <t>TS2.B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tour Quimioterapia</t>
+  </si>
+  <si>
+    <t>Z71.8</t>
+  </si>
+  <si>
+    <t>Necesidad de información sobre cáncer</t>
+  </si>
+  <si>
+    <t>Donación de  Sangre.</t>
+  </si>
+  <si>
+    <t>TS1.O</t>
+  </si>
+  <si>
+    <t>Necesidad de información para donación de sangre</t>
+  </si>
+  <si>
+    <t>TS1.T</t>
+  </si>
+  <si>
+    <t>Paciente integrado a programa de VIH/SIDA</t>
+  </si>
+  <si>
+    <t>Diálisis</t>
+  </si>
+  <si>
+    <t>TS1.W</t>
+  </si>
+  <si>
+    <t>Paciente integrado a programa de Diálisis</t>
+  </si>
+  <si>
+    <t>Hemodiálisis</t>
+  </si>
+  <si>
+    <t>TS1.U</t>
+  </si>
+  <si>
+    <t>Paciente integrado a programa de Hemodiálisis</t>
+  </si>
+  <si>
+    <t>CACU</t>
+  </si>
+  <si>
+    <t>CAMA</t>
+  </si>
+  <si>
+    <t>TS1.X</t>
+  </si>
+  <si>
+    <t>Paciente integrado a clínica de mama</t>
+  </si>
+  <si>
+    <t>GeriatrIMSS</t>
+  </si>
+  <si>
+    <t>TS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Lactancia Materna</t>
+  </si>
+  <si>
+    <t>TS1.S</t>
+  </si>
+  <si>
+    <t>Necesidad de información para la lactancia materna</t>
+  </si>
+  <si>
+    <t>Cuidados del paciente post trasplante</t>
+  </si>
+  <si>
+    <t>TS1.N</t>
+  </si>
+  <si>
+    <t>Necesidad de información para donación de órganos y tejidos</t>
+  </si>
+  <si>
+    <t>Educación para pacientes prematuros</t>
+  </si>
+  <si>
+    <t>TS1.L</t>
+  </si>
+  <si>
+    <t>Expectativas diferentes de los integrantes de la familia que inciden en salud</t>
+  </si>
+  <si>
+    <t>Cuidados de pacientes oncológicos</t>
+  </si>
+  <si>
+    <t>Autocuidado de la Salud</t>
+  </si>
+  <si>
+    <t>Cuidados post cateterismo cardiaco</t>
+  </si>
+  <si>
+    <t>Ts2</t>
+  </si>
+  <si>
+    <t>Yoga prenatal</t>
+  </si>
+  <si>
+    <t>Grupos voluntarios</t>
+  </si>
+  <si>
+    <t>TS2.H</t>
+  </si>
+  <si>
+    <t>Incorporación a grupos de autoayuda</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>TS3</t>
+  </si>
+  <si>
+    <t>ADEC</t>
+  </si>
+  <si>
+    <t>TS1.V</t>
+  </si>
+  <si>
+    <t>Paciente integrado al programa de DEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planificación Familiar </t>
+  </si>
+  <si>
+    <t>Z30.0</t>
+  </si>
+  <si>
+    <t>Necesidad de información en Planificación Familiar</t>
   </si>
 </sst>
 </file>
@@ -499,104 +625,346 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64CCAEAA-4231-4770-9010-191EE5FD3295}">
-  <dimension ref="A1:L191"/>
+  <dimension ref="A1:J191"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J26" s="1"/>
-    </row>
-    <row r="42" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J43" s="1"/>
-    </row>
-    <row r="52" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J52" s="1"/>
-    </row>
-    <row r="65" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J65" s="1"/>
-    </row>
-    <row r="190" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K190" s="1"/>
-    </row>
-    <row r="191" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K191" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I26" s="1"/>
+    </row>
+    <row r="42" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I43" s="1"/>
+    </row>
+    <row r="52" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I52" s="1"/>
+    </row>
+    <row r="65" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I65" s="1"/>
+    </row>
+    <row r="190" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J190" s="1"/>
+    </row>
+    <row r="191" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J191" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -624,25 +992,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -650,19 +1018,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -672,13 +1040,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5262BBD6-F35A-4EFA-8784-122DD4E3CC3F}">
           <x14:formula1>
-            <xm:f>A_servicios_especialidades!$B$2:$B$27</xm:f>
+            <xm:f>E_14_GRUPOS_Programas!$A$2:$A$27</xm:f>
           </x14:formula1>
           <xm:sqref>F29:F97</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D7CD36EE-C343-4AF1-AFC1-30B4B1AC8850}">
           <x14:formula1>
-            <xm:f>A_servicios_especialidades!$B$2:$B$100</xm:f>
+            <xm:f>E_14_GRUPOS_Programas!$A$2:$A$100</xm:f>
           </x14:formula1>
           <xm:sqref>F98:F461</xm:sqref>
         </x14:dataValidation>
@@ -693,7 +1061,7 @@
   <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -706,39 +1074,40 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3">
-        <v>44621</v>
+        <f ca="1">TODAY()+1</f>
+        <v>44761</v>
       </c>
       <c r="D2" s="4">
         <v>0.41666666666666669</v>
@@ -747,8 +1116,8 @@
         <v>15</v>
       </c>
       <c r="F2" s="3">
-        <f>IF(AND(HOUR(D2)=23,HOUR(G2)=0),C2+1,C2)</f>
-        <v>44621</v>
+        <f ca="1">IF(AND(HOUR(D2)=23,HOUR(G2)=0),C2+1,C2)</f>
+        <v>44761</v>
       </c>
       <c r="G2" s="4">
         <f>D2+VALUE("00:"&amp;E2&amp;":00")</f>
@@ -1389,7 +1758,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7A276B75-DA65-4423-8D72-321F308D33C7}">
           <x14:formula1>
-            <xm:f>A_servicios_especialidades!$B$2:$B$27</xm:f>
+            <xm:f>E_14_GRUPOS_Programas!$A$2:$A$27</xm:f>
           </x14:formula1>
           <xm:sqref>A124:A153</xm:sqref>
         </x14:dataValidation>
@@ -1400,6 +1769,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002047D94B5E73D04A80AA6844A59F543A" ma:contentTypeVersion="0" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="19f8b377e75dbac3c1f2314aec064948">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f6edc329ff236629c56e3b879b320d0">
     <xsd:element name="properties">
@@ -1513,32 +1897,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EC26224-972D-4B00-B624-0625DBEFB70E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA352A83-CB83-418A-87A4-DE7F5968277D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -1553,9 +1915,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA352A83-CB83-418A-87A4-DE7F5968277D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EC26224-972D-4B00-B624-0625DBEFB70E}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/src/assets/files/15.CalendarioAnual.xlsx
+++ b/src/assets/files/15.CalendarioAnual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avictoria\Documents\Proyectos\AgendaDigital\ARCHIVOS PRUEBA\oficiales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61943AF0-953C-4662-8A3F-44FA083CA7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB578E1-BFC2-40BF-B8AC-5C036B717AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16560" yWindow="-3274" windowWidth="16663" windowHeight="9017" activeTab="2" xr2:uid="{76E7FC68-D242-465E-8EB4-3CC40106161F}"/>
   </bookViews>
@@ -37,12 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="75">
   <si>
     <t xml:space="preserve">Atención Médica Continúa </t>
-  </si>
-  <si>
-    <t>CLAVE DE UBICACIÓN</t>
   </si>
   <si>
     <t>DESCRIPCION COMPLETA DE UBICACION</t>
@@ -300,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -308,9 +305,8 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,310 +635,310 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
         <v>38</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
         <v>41</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" t="s">
-        <v>43</v>
-      </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
         <v>45</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>46</v>
       </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
         <v>48</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>49</v>
       </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
         <v>51</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>52</v>
       </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
         <v>54</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>55</v>
       </c>
-      <c r="C13" t="s">
-        <v>56</v>
-      </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
         <v>57</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>58</v>
       </c>
-      <c r="C14" t="s">
-        <v>59</v>
-      </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
         <v>31</v>
       </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
         <v>58</v>
       </c>
-      <c r="C16" t="s">
-        <v>59</v>
-      </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
         <v>62</v>
       </c>
-      <c r="B17" t="s">
-        <v>63</v>
-      </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
         <v>58</v>
       </c>
-      <c r="C18" t="s">
-        <v>59</v>
-      </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
         <v>65</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>66</v>
       </c>
-      <c r="C19" t="s">
-        <v>67</v>
-      </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
         <v>68</v>
       </c>
-      <c r="B20" t="s">
-        <v>69</v>
-      </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
         <v>70</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>71</v>
       </c>
-      <c r="C21" t="s">
-        <v>72</v>
-      </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
         <v>73</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>74</v>
       </c>
-      <c r="C22" t="s">
-        <v>75</v>
-      </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -973,24 +969,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0BEEB7A-6427-41AA-BCE0-BEE66E749945}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
-    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="7" width="30.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1009,28 +1004,22 @@
       <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1042,13 +1031,13 @@
           <x14:formula1>
             <xm:f>E_14_GRUPOS_Programas!$A$2:$A$27</xm:f>
           </x14:formula1>
-          <xm:sqref>F29:F97</xm:sqref>
+          <xm:sqref>E29:E97</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D7CD36EE-C343-4AF1-AFC1-30B4B1AC8850}">
           <x14:formula1>
             <xm:f>E_14_GRUPOS_Programas!$A$2:$A$100</xm:f>
           </x14:formula1>
-          <xm:sqref>F98:F461</xm:sqref>
+          <xm:sqref>E98:E461</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1058,87 +1047,94 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D39F04C-48C3-4E87-B348-679A9F98F4DD}">
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.77734375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="5" customWidth="1"/>
     <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="6"/>
     <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="C2" s="3">
         <f ca="1">TODAY()+1</f>
-        <v>44761</v>
+        <v>44763</v>
       </c>
       <c r="D2" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="6">
         <v>15</v>
       </c>
       <c r="F2" s="3">
         <f ca="1">IF(AND(HOUR(D2)=23,HOUR(G2)=0),C2+1,C2)</f>
-        <v>44761</v>
+        <v>44763</v>
       </c>
       <c r="G2" s="4">
         <f>D2+VALUE("00:"&amp;E2&amp;":00")</f>
         <v>0.42708333333333337</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C6" s="3"/>
@@ -1710,46 +1706,22 @@
       <c r="F100" s="3"/>
       <c r="G100" s="4"/>
     </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C101" s="3"/>
-      <c r="D101" s="4"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="4"/>
-    </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C102" s="3"/>
-      <c r="D102" s="4"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="4"/>
-    </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C103" s="3"/>
-      <c r="D103" s="4"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-  </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H103" xr:uid="{77F5C645-CD51-4AFD-9FCC-469C229AAEC9}">
-      <formula1>1</formula1>
-      <formula2>100</formula2>
-    </dataValidation>
-    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E103 E2" xr:uid="{40B0490A-D9B0-4ED1-83CB-6FED982253CF}">
+    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E97" xr:uid="{40B0490A-D9B0-4ED1-83CB-6FED982253CF}">
       <formula1>60</formula1>
     </dataValidation>
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D103 D2" xr:uid="{36ED1939-987C-49F0-898A-DC4C0D21810F}">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D97" xr:uid="{36ED1939-987C-49F0-898A-DC4C0D21810F}">
       <formula1>0</formula1>
       <formula2>0.999988425925926</formula2>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C103 F2 F6:F103 C2" xr:uid="{6783D32D-0876-411E-BF4C-3C0E01BC8E9C}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F97 C2:C97" xr:uid="{6783D32D-0876-411E-BF4C-3C0E01BC8E9C}">
       <formula1>44562</formula1>
       <formula2>44926</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H97" xr:uid="{77F5C645-CD51-4AFD-9FCC-469C229AAEC9}">
+      <formula1>1</formula1>
+      <formula2>100</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1760,7 +1732,7 @@
           <x14:formula1>
             <xm:f>E_14_GRUPOS_Programas!$A$2:$A$27</xm:f>
           </x14:formula1>
-          <xm:sqref>A124:A153</xm:sqref>
+          <xm:sqref>A118:A147</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1769,21 +1741,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002047D94B5E73D04A80AA6844A59F543A" ma:contentTypeVersion="0" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="19f8b377e75dbac3c1f2314aec064948">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f6edc329ff236629c56e3b879b320d0">
     <xsd:element name="properties">
@@ -1897,10 +1854,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA352A83-CB83-418A-87A4-DE7F5968277D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EC26224-972D-4B00-B624-0625DBEFB70E}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -1915,16 +1894,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EC26224-972D-4B00-B624-0625DBEFB70E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA352A83-CB83-418A-87A4-DE7F5968277D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/src/assets/files/15.CalendarioAnual.xlsx
+++ b/src/assets/files/15.CalendarioAnual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avictoria\Documents\Proyectos\AgendaDigital\ARCHIVOS PRUEBA\oficiales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB578E1-BFC2-40BF-B8AC-5C036B717AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E50A09-FC48-4F5D-B52A-3BD48581035B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16560" yWindow="-3274" windowWidth="16663" windowHeight="9017" activeTab="2" xr2:uid="{76E7FC68-D242-465E-8EB4-3CC40106161F}"/>
+    <workbookView xWindow="1284" yWindow="2304" windowWidth="21756" windowHeight="6048" activeTab="2" xr2:uid="{76E7FC68-D242-465E-8EB4-3CC40106161F}"/>
   </bookViews>
   <sheets>
     <sheet name="E_14_GRUPOS_Programas" sheetId="1" r:id="rId1"/>
@@ -93,9 +93,6 @@
     <t>UMF12</t>
   </si>
   <si>
-    <t>PROGRAMA</t>
-  </si>
-  <si>
     <t>VIH</t>
   </si>
   <si>
@@ -262,6 +259,9 @@
   </si>
   <si>
     <t>Necesidad de información en Planificación Familiar</t>
+  </si>
+  <si>
+    <t>PROGRAMA DE TRABAJO SOCIAL</t>
   </si>
 </sst>
 </file>
@@ -635,13 +635,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
@@ -649,296 +649,296 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>33</v>
       </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>38</v>
       </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
         <v>40</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>41</v>
       </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
         <v>44</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>45</v>
       </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
         <v>47</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>48</v>
       </c>
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
         <v>50</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>51</v>
       </c>
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
         <v>53</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>54</v>
       </c>
-      <c r="C13" t="s">
-        <v>55</v>
-      </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
         <v>56</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>57</v>
       </c>
-      <c r="C14" t="s">
-        <v>58</v>
-      </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
         <v>30</v>
       </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
         <v>57</v>
       </c>
-      <c r="C16" t="s">
-        <v>58</v>
-      </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
         <v>61</v>
       </c>
-      <c r="B17" t="s">
-        <v>62</v>
-      </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
         <v>57</v>
       </c>
-      <c r="C18" t="s">
-        <v>58</v>
-      </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
         <v>64</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>65</v>
       </c>
-      <c r="C19" t="s">
-        <v>66</v>
-      </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
         <v>67</v>
       </c>
-      <c r="B20" t="s">
-        <v>68</v>
-      </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
         <v>69</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>70</v>
       </c>
-      <c r="C21" t="s">
-        <v>71</v>
-      </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
         <v>72</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>73</v>
       </c>
-      <c r="C22" t="s">
-        <v>74</v>
-      </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1050,7 +1050,7 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1065,7 +1065,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>9</v>
@@ -1091,7 +1091,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
@@ -1741,6 +1741,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002047D94B5E73D04A80AA6844A59F543A" ma:contentTypeVersion="0" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="19f8b377e75dbac3c1f2314aec064948">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f6edc329ff236629c56e3b879b320d0">
     <xsd:element name="properties">
@@ -1854,32 +1869,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EC26224-972D-4B00-B624-0625DBEFB70E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA352A83-CB83-418A-87A4-DE7F5968277D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -1894,9 +1887,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA352A83-CB83-418A-87A4-DE7F5968277D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EC26224-972D-4B00-B624-0625DBEFB70E}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/src/assets/files/15.CalendarioAnual.xlsx
+++ b/src/assets/files/15.CalendarioAnual.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avictoria\Documents\Proyectos\AgendaDigital\ARCHIVOS PRUEBA\oficiales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61943AF0-953C-4662-8A3F-44FA083CA7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75B177DF-0262-482C-9876-D06D811FD845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16560" yWindow="-3274" windowWidth="16663" windowHeight="9017" activeTab="2" xr2:uid="{76E7FC68-D242-465E-8EB4-3CC40106161F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{76E7FC68-D242-465E-8EB4-3CC40106161F}"/>
   </bookViews>
   <sheets>
-    <sheet name="E_14_GRUPOS_Programas" sheetId="1" r:id="rId1"/>
+    <sheet name="A_servicios_especialidades" sheetId="1" r:id="rId1"/>
     <sheet name="B_4_UBICACIONES" sheetId="2" r:id="rId2"/>
     <sheet name="F_CalendarioAnual" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -37,7 +37,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+  <si>
+    <t>CLAVE ESPECIALIDAD</t>
+  </si>
+  <si>
+    <t>DESCRIPCIÓN ESPECIALIDAD</t>
+  </si>
+  <si>
+    <t>IND_CE</t>
+  </si>
+  <si>
+    <t>IND_HOSP</t>
+  </si>
+  <si>
+    <t>IND_IQ</t>
+  </si>
+  <si>
+    <t>IND_NIVEL1</t>
+  </si>
+  <si>
+    <t>IND_NIVEL2</t>
+  </si>
+  <si>
+    <t>IND_NIVEL3</t>
+  </si>
+  <si>
+    <t>IND_CSS</t>
+  </si>
+  <si>
+    <t>FEC_BAJA</t>
+  </si>
+  <si>
+    <t>FEC_ALTA</t>
+  </si>
+  <si>
+    <t>FEC_ACTUALIZACION</t>
+  </si>
+  <si>
+    <t>AC01</t>
+  </si>
   <si>
     <t xml:space="preserve">Atención Médica Continúa </t>
   </si>
@@ -69,6 +108,9 @@
     <t>Trab_Social_01</t>
   </si>
   <si>
+    <t>SERVICIOS / ESPECIALIDADES</t>
+  </si>
+  <si>
     <t>UBICACIÓN</t>
   </si>
   <si>
@@ -90,181 +132,13 @@
     <t>MAXIMO DE PARTICIPANTES</t>
   </si>
   <si>
+    <t>Adulto Mayores</t>
+  </si>
+  <si>
     <t>Consultorio</t>
   </si>
   <si>
     <t>UMF12</t>
-  </si>
-  <si>
-    <t>PROGRAMA</t>
-  </si>
-  <si>
-    <t>VIH</t>
-  </si>
-  <si>
-    <t>DESCRIPCION GRUPO / PROGRAMA</t>
-  </si>
-  <si>
-    <t>CODIGO</t>
-  </si>
-  <si>
-    <t>DESCRIPCION ACTIVIDAD</t>
-  </si>
-  <si>
-    <t>Tour  Quirúrgico</t>
-  </si>
-  <si>
-    <t>TS2.C</t>
-  </si>
-  <si>
-    <t>Tour Quirúrgico</t>
-  </si>
-  <si>
-    <t>Trabajo Social</t>
-  </si>
-  <si>
-    <t>Tour Obstétrico</t>
-  </si>
-  <si>
-    <t>TS2.B</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tour Quimioterapia</t>
-  </si>
-  <si>
-    <t>Z71.8</t>
-  </si>
-  <si>
-    <t>Necesidad de información sobre cáncer</t>
-  </si>
-  <si>
-    <t>Donación de  Sangre.</t>
-  </si>
-  <si>
-    <t>TS1.O</t>
-  </si>
-  <si>
-    <t>Necesidad de información para donación de sangre</t>
-  </si>
-  <si>
-    <t>TS1.T</t>
-  </si>
-  <si>
-    <t>Paciente integrado a programa de VIH/SIDA</t>
-  </si>
-  <si>
-    <t>Diálisis</t>
-  </si>
-  <si>
-    <t>TS1.W</t>
-  </si>
-  <si>
-    <t>Paciente integrado a programa de Diálisis</t>
-  </si>
-  <si>
-    <t>Hemodiálisis</t>
-  </si>
-  <si>
-    <t>TS1.U</t>
-  </si>
-  <si>
-    <t>Paciente integrado a programa de Hemodiálisis</t>
-  </si>
-  <si>
-    <t>CACU</t>
-  </si>
-  <si>
-    <t>CAMA</t>
-  </si>
-  <si>
-    <t>TS1.X</t>
-  </si>
-  <si>
-    <t>Paciente integrado a clínica de mama</t>
-  </si>
-  <si>
-    <t>GeriatrIMSS</t>
-  </si>
-  <si>
-    <t>TS1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Lactancia Materna</t>
-  </si>
-  <si>
-    <t>TS1.S</t>
-  </si>
-  <si>
-    <t>Necesidad de información para la lactancia materna</t>
-  </si>
-  <si>
-    <t>Cuidados del paciente post trasplante</t>
-  </si>
-  <si>
-    <t>TS1.N</t>
-  </si>
-  <si>
-    <t>Necesidad de información para donación de órganos y tejidos</t>
-  </si>
-  <si>
-    <t>Educación para pacientes prematuros</t>
-  </si>
-  <si>
-    <t>TS1.L</t>
-  </si>
-  <si>
-    <t>Expectativas diferentes de los integrantes de la familia que inciden en salud</t>
-  </si>
-  <si>
-    <t>Cuidados de pacientes oncológicos</t>
-  </si>
-  <si>
-    <t>Autocuidado de la Salud</t>
-  </si>
-  <si>
-    <t>Cuidados post cateterismo cardiaco</t>
-  </si>
-  <si>
-    <t>Ts2</t>
-  </si>
-  <si>
-    <t>Yoga prenatal</t>
-  </si>
-  <si>
-    <t>Grupos voluntarios</t>
-  </si>
-  <si>
-    <t>TS2.H</t>
-  </si>
-  <si>
-    <t>Incorporación a grupos de autoayuda</t>
-  </si>
-  <si>
-    <t>Otros</t>
-  </si>
-  <si>
-    <t>TS3</t>
-  </si>
-  <si>
-    <t>ADEC</t>
-  </si>
-  <si>
-    <t>TS1.V</t>
-  </si>
-  <si>
-    <t>Paciente integrado al programa de DEC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planificación Familiar </t>
-  </si>
-  <si>
-    <t>Z30.0</t>
-  </si>
-  <si>
-    <t>Necesidad de información en Planificación Familiar</t>
   </si>
 </sst>
 </file>
@@ -625,346 +499,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64CCAEAA-4231-4770-9010-191EE5FD3295}">
-  <dimension ref="A1:J191"/>
+  <dimension ref="A1:L191"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I26" s="1"/>
-    </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I43" s="1"/>
-    </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I52" s="1"/>
-    </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I65" s="1"/>
-    </row>
-    <row r="190" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J190" s="1"/>
-    </row>
-    <row r="191" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J191" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+    </row>
+    <row r="42" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J43" s="1"/>
+    </row>
+    <row r="52" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J52" s="1"/>
+    </row>
+    <row r="65" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J65" s="1"/>
+    </row>
+    <row r="190" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K190" s="1"/>
+    </row>
+    <row r="191" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K191" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -992,25 +624,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1018,19 +650,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1040,13 +672,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5262BBD6-F35A-4EFA-8784-122DD4E3CC3F}">
           <x14:formula1>
-            <xm:f>E_14_GRUPOS_Programas!$A$2:$A$27</xm:f>
+            <xm:f>A_servicios_especialidades!$B$2:$B$27</xm:f>
           </x14:formula1>
           <xm:sqref>F29:F97</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D7CD36EE-C343-4AF1-AFC1-30B4B1AC8850}">
           <x14:formula1>
-            <xm:f>E_14_GRUPOS_Programas!$A$2:$A$100</xm:f>
+            <xm:f>A_servicios_especialidades!$B$2:$B$100</xm:f>
           </x14:formula1>
           <xm:sqref>F98:F461</xm:sqref>
         </x14:dataValidation>
@@ -1061,7 +693,7 @@
   <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1074,40 +706,39 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C2" s="3">
-        <f ca="1">TODAY()+1</f>
-        <v>44761</v>
+        <v>44621</v>
       </c>
       <c r="D2" s="4">
         <v>0.41666666666666669</v>
@@ -1116,8 +747,8 @@
         <v>15</v>
       </c>
       <c r="F2" s="3">
-        <f ca="1">IF(AND(HOUR(D2)=23,HOUR(G2)=0),C2+1,C2)</f>
-        <v>44761</v>
+        <f>IF(AND(HOUR(D2)=23,HOUR(G2)=0),C2+1,C2)</f>
+        <v>44621</v>
       </c>
       <c r="G2" s="4">
         <f>D2+VALUE("00:"&amp;E2&amp;":00")</f>
@@ -1758,7 +1389,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7A276B75-DA65-4423-8D72-321F308D33C7}">
           <x14:formula1>
-            <xm:f>E_14_GRUPOS_Programas!$A$2:$A$27</xm:f>
+            <xm:f>A_servicios_especialidades!$B$2:$B$27</xm:f>
           </x14:formula1>
           <xm:sqref>A124:A153</xm:sqref>
         </x14:dataValidation>
@@ -1769,21 +1400,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002047D94B5E73D04A80AA6844A59F543A" ma:contentTypeVersion="0" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="19f8b377e75dbac3c1f2314aec064948">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f6edc329ff236629c56e3b879b320d0">
     <xsd:element name="properties">
@@ -1897,10 +1513,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA352A83-CB83-418A-87A4-DE7F5968277D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EC26224-972D-4B00-B624-0625DBEFB70E}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -1915,16 +1553,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EC26224-972D-4B00-B624-0625DBEFB70E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA352A83-CB83-418A-87A4-DE7F5968277D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/src/assets/files/15.CalendarioAnual.xlsx
+++ b/src/assets/files/15.CalendarioAnual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avictoria\Documents\Proyectos\AgendaDigital\ARCHIVOS PRUEBA\oficiales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E50A09-FC48-4F5D-B52A-3BD48581035B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC819E8-84D9-412D-8933-17EEC8A12A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1284" yWindow="2304" windowWidth="21756" windowHeight="6048" activeTab="2" xr2:uid="{76E7FC68-D242-465E-8EB4-3CC40106161F}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="21756" windowHeight="10836" activeTab="2" xr2:uid="{76E7FC68-D242-465E-8EB4-3CC40106161F}"/>
   </bookViews>
   <sheets>
     <sheet name="E_14_GRUPOS_Programas" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="78">
   <si>
     <t xml:space="preserve">Atención Médica Continúa </t>
   </si>
@@ -262,6 +262,15 @@
   </si>
   <si>
     <t>PROGRAMA DE TRABAJO SOCIAL</t>
+  </si>
+  <si>
+    <t>CLAVE ESPECIALIDAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cirugía Ambulatoria </t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
 </sst>
 </file>
@@ -1047,679 +1056,692 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D39F04C-48C3-4E87-B348-679A9F98F4DD}">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="6"/>
+    <col min="1" max="2" width="18.77734375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="20" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
     <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="6"/>
+    <col min="7" max="7" width="11.5546875" style="6"/>
+    <col min="8" max="8" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3">
+      <c r="E2" s="3">
         <f ca="1">TODAY()+1</f>
-        <v>44763</v>
-      </c>
-      <c r="D2" s="4">
+        <v>44765</v>
+      </c>
+      <c r="F2" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E2" s="6">
+      <c r="G2" s="6">
         <v>15</v>
       </c>
-      <c r="F2" s="3">
-        <f ca="1">IF(AND(HOUR(D2)=23,HOUR(G2)=0),C2+1,C2)</f>
-        <v>44763</v>
-      </c>
-      <c r="G2" s="4">
-        <f>D2+VALUE("00:"&amp;E2&amp;":00")</f>
+      <c r="H2" s="3">
+        <f ca="1">IF(AND(HOUR(F2)=23,HOUR(I2)=0),E2+1,E2)</f>
+        <v>44765</v>
+      </c>
+      <c r="I2" s="4">
+        <f>F2+VALUE("00:"&amp;G2&amp;":00")</f>
         <v>0.42708333333333337</v>
       </c>
-      <c r="H2" s="6">
+      <c r="J2" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C22" s="3"/>
-      <c r="D22" s="4"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C23" s="3"/>
-      <c r="D23" s="4"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C24" s="3"/>
-      <c r="D24" s="4"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C25" s="3"/>
-      <c r="D25" s="4"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C27" s="3"/>
-      <c r="D27" s="4"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C28" s="3"/>
-      <c r="D28" s="4"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C29" s="3"/>
-      <c r="D29" s="4"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C30" s="3"/>
-      <c r="D30" s="4"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C31" s="3"/>
-      <c r="D31" s="4"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C32" s="3"/>
-      <c r="D32" s="4"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C33" s="3"/>
-      <c r="D33" s="4"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C34" s="3"/>
-      <c r="D34" s="4"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C35" s="3"/>
-      <c r="D35" s="4"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C36" s="3"/>
-      <c r="D36" s="4"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C37" s="3"/>
-      <c r="D37" s="4"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C38" s="3"/>
-      <c r="D38" s="4"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C39" s="3"/>
-      <c r="D39" s="4"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C40" s="3"/>
-      <c r="D40" s="4"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C41" s="3"/>
-      <c r="D41" s="4"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C42" s="3"/>
-      <c r="D42" s="4"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C43" s="3"/>
-      <c r="D43" s="4"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C44" s="3"/>
-      <c r="D44" s="4"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C45" s="3"/>
-      <c r="D45" s="4"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="4"/>
-    </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C46" s="3"/>
-      <c r="D46" s="4"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="4"/>
-    </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C47" s="3"/>
-      <c r="D47" s="4"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C48" s="3"/>
-      <c r="D48" s="4"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="4"/>
-    </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C49" s="3"/>
-      <c r="D49" s="4"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C50" s="3"/>
-      <c r="D50" s="4"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="4"/>
-    </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C51" s="3"/>
-      <c r="D51" s="4"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="4"/>
-    </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C52" s="3"/>
-      <c r="D52" s="4"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="4"/>
-    </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C53" s="3"/>
-      <c r="D53" s="4"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="4"/>
-    </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C54" s="3"/>
-      <c r="D54" s="4"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="4"/>
-    </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C55" s="3"/>
-      <c r="D55" s="4"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="4"/>
-    </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C56" s="3"/>
-      <c r="D56" s="4"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="4"/>
-    </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C57" s="3"/>
-      <c r="D57" s="4"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="4"/>
-    </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C58" s="3"/>
-      <c r="D58" s="4"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="4"/>
-    </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C59" s="3"/>
-      <c r="D59" s="4"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="4"/>
-    </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C60" s="3"/>
-      <c r="D60" s="4"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="4"/>
-    </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C61" s="3"/>
-      <c r="D61" s="4"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="4"/>
-    </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C62" s="3"/>
-      <c r="D62" s="4"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="4"/>
-    </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C63" s="3"/>
-      <c r="D63" s="4"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="4"/>
-    </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C64" s="3"/>
-      <c r="D64" s="4"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="4"/>
-    </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C65" s="3"/>
-      <c r="D65" s="4"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="4"/>
-    </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C66" s="3"/>
-      <c r="D66" s="4"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="4"/>
-    </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C67" s="3"/>
-      <c r="D67" s="4"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="4"/>
-    </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C68" s="3"/>
-      <c r="D68" s="4"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="4"/>
-    </row>
-    <row r="69" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C69" s="3"/>
-      <c r="D69" s="4"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="4"/>
-    </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C70" s="3"/>
-      <c r="D70" s="4"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="4"/>
-    </row>
-    <row r="71" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C71" s="3"/>
-      <c r="D71" s="4"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="4"/>
-    </row>
-    <row r="72" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C72" s="3"/>
-      <c r="D72" s="4"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="4"/>
-    </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C73" s="3"/>
-      <c r="D73" s="4"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="4"/>
-    </row>
-    <row r="74" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C74" s="3"/>
-      <c r="D74" s="4"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="4"/>
-    </row>
-    <row r="75" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C75" s="3"/>
-      <c r="D75" s="4"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="4"/>
-    </row>
-    <row r="76" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C76" s="3"/>
-      <c r="D76" s="4"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="4"/>
-    </row>
-    <row r="77" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C77" s="3"/>
-      <c r="D77" s="4"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="4"/>
-    </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C78" s="3"/>
-      <c r="D78" s="4"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="4"/>
-    </row>
-    <row r="79" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C79" s="3"/>
-      <c r="D79" s="4"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="4"/>
-    </row>
-    <row r="80" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C80" s="3"/>
-      <c r="D80" s="4"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="4"/>
-    </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C81" s="3"/>
-      <c r="D81" s="4"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="4"/>
-    </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C82" s="3"/>
-      <c r="D82" s="4"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="4"/>
-    </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C83" s="3"/>
-      <c r="D83" s="4"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="4"/>
-    </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C84" s="3"/>
-      <c r="D84" s="4"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="4"/>
-    </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C85" s="3"/>
-      <c r="D85" s="4"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="4"/>
-    </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C86" s="3"/>
-      <c r="D86" s="4"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="4"/>
-    </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C87" s="3"/>
-      <c r="D87" s="4"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="4"/>
-    </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C88" s="3"/>
-      <c r="D88" s="4"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="4"/>
-    </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C89" s="3"/>
-      <c r="D89" s="4"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="4"/>
-    </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C90" s="3"/>
-      <c r="D90" s="4"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="4"/>
-    </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C91" s="3"/>
-      <c r="D91" s="4"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="4"/>
-    </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C92" s="3"/>
-      <c r="D92" s="4"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="4"/>
-    </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C93" s="3"/>
-      <c r="D93" s="4"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="4"/>
-    </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C94" s="3"/>
-      <c r="D94" s="4"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="4"/>
-    </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C95" s="3"/>
-      <c r="D95" s="4"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="4"/>
-    </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C96" s="3"/>
-      <c r="D96" s="4"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="4"/>
-    </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C97" s="3"/>
-      <c r="D97" s="4"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="4"/>
-    </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C98" s="3"/>
-      <c r="D98" s="4"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="4"/>
-    </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C99" s="3"/>
-      <c r="D99" s="4"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="4"/>
-    </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C100" s="3"/>
-      <c r="D100" s="4"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="4"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E9" s="3"/>
+      <c r="F9" s="4"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E13" s="3"/>
+      <c r="F13" s="4"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E14" s="3"/>
+      <c r="F14" s="4"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E15" s="3"/>
+      <c r="F15" s="4"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E16" s="3"/>
+      <c r="F16" s="4"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E17" s="3"/>
+      <c r="F17" s="4"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E18" s="3"/>
+      <c r="F18" s="4"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E19" s="3"/>
+      <c r="F19" s="4"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E20" s="3"/>
+      <c r="F20" s="4"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E21" s="3"/>
+      <c r="F21" s="4"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E22" s="3"/>
+      <c r="F22" s="4"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E23" s="3"/>
+      <c r="F23" s="4"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E24" s="3"/>
+      <c r="F24" s="4"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E25" s="3"/>
+      <c r="F25" s="4"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E26" s="3"/>
+      <c r="F26" s="4"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E27" s="3"/>
+      <c r="F27" s="4"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E28" s="3"/>
+      <c r="F28" s="4"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E29" s="3"/>
+      <c r="F29" s="4"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E30" s="3"/>
+      <c r="F30" s="4"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E31" s="3"/>
+      <c r="F31" s="4"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E32" s="3"/>
+      <c r="F32" s="4"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E33" s="3"/>
+      <c r="F33" s="4"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E34" s="3"/>
+      <c r="F34" s="4"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E35" s="3"/>
+      <c r="F35" s="4"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E36" s="3"/>
+      <c r="F36" s="4"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E37" s="3"/>
+      <c r="F37" s="4"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E38" s="3"/>
+      <c r="F38" s="4"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E39" s="3"/>
+      <c r="F39" s="4"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E40" s="3"/>
+      <c r="F40" s="4"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E41" s="3"/>
+      <c r="F41" s="4"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E42" s="3"/>
+      <c r="F42" s="4"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E43" s="3"/>
+      <c r="F43" s="4"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E44" s="3"/>
+      <c r="F44" s="4"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E45" s="3"/>
+      <c r="F45" s="4"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E46" s="3"/>
+      <c r="F46" s="4"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E47" s="3"/>
+      <c r="F47" s="4"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E48" s="3"/>
+      <c r="F48" s="4"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E49" s="3"/>
+      <c r="F49" s="4"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E50" s="3"/>
+      <c r="F50" s="4"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E51" s="3"/>
+      <c r="F51" s="4"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E52" s="3"/>
+      <c r="F52" s="4"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="4"/>
+    </row>
+    <row r="53" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E53" s="3"/>
+      <c r="F53" s="4"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="4"/>
+    </row>
+    <row r="54" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E54" s="3"/>
+      <c r="F54" s="4"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="4"/>
+    </row>
+    <row r="55" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E55" s="3"/>
+      <c r="F55" s="4"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="4"/>
+    </row>
+    <row r="56" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E56" s="3"/>
+      <c r="F56" s="4"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="4"/>
+    </row>
+    <row r="57" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E57" s="3"/>
+      <c r="F57" s="4"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="4"/>
+    </row>
+    <row r="58" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E58" s="3"/>
+      <c r="F58" s="4"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="4"/>
+    </row>
+    <row r="59" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E59" s="3"/>
+      <c r="F59" s="4"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="4"/>
+    </row>
+    <row r="60" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E60" s="3"/>
+      <c r="F60" s="4"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="4"/>
+    </row>
+    <row r="61" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E61" s="3"/>
+      <c r="F61" s="4"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="4"/>
+    </row>
+    <row r="62" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E62" s="3"/>
+      <c r="F62" s="4"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="4"/>
+    </row>
+    <row r="63" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E63" s="3"/>
+      <c r="F63" s="4"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="4"/>
+    </row>
+    <row r="64" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E64" s="3"/>
+      <c r="F64" s="4"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="4"/>
+    </row>
+    <row r="65" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E65" s="3"/>
+      <c r="F65" s="4"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="4"/>
+    </row>
+    <row r="66" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E66" s="3"/>
+      <c r="F66" s="4"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="4"/>
+    </row>
+    <row r="67" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E67" s="3"/>
+      <c r="F67" s="4"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="4"/>
+    </row>
+    <row r="68" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E68" s="3"/>
+      <c r="F68" s="4"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="4"/>
+    </row>
+    <row r="69" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E69" s="3"/>
+      <c r="F69" s="4"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="4"/>
+    </row>
+    <row r="70" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E70" s="3"/>
+      <c r="F70" s="4"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="4"/>
+    </row>
+    <row r="71" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E71" s="3"/>
+      <c r="F71" s="4"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="4"/>
+    </row>
+    <row r="72" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E72" s="3"/>
+      <c r="F72" s="4"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="4"/>
+    </row>
+    <row r="73" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E73" s="3"/>
+      <c r="F73" s="4"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="4"/>
+    </row>
+    <row r="74" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E74" s="3"/>
+      <c r="F74" s="4"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="4"/>
+    </row>
+    <row r="75" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E75" s="3"/>
+      <c r="F75" s="4"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="4"/>
+    </row>
+    <row r="76" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E76" s="3"/>
+      <c r="F76" s="4"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="4"/>
+    </row>
+    <row r="77" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E77" s="3"/>
+      <c r="F77" s="4"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="4"/>
+    </row>
+    <row r="78" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E78" s="3"/>
+      <c r="F78" s="4"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="4"/>
+    </row>
+    <row r="79" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E79" s="3"/>
+      <c r="F79" s="4"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="4"/>
+    </row>
+    <row r="80" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E80" s="3"/>
+      <c r="F80" s="4"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="4"/>
+    </row>
+    <row r="81" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E81" s="3"/>
+      <c r="F81" s="4"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="4"/>
+    </row>
+    <row r="82" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E82" s="3"/>
+      <c r="F82" s="4"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="4"/>
+    </row>
+    <row r="83" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E83" s="3"/>
+      <c r="F83" s="4"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="4"/>
+    </row>
+    <row r="84" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E84" s="3"/>
+      <c r="F84" s="4"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="4"/>
+    </row>
+    <row r="85" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E85" s="3"/>
+      <c r="F85" s="4"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="4"/>
+    </row>
+    <row r="86" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E86" s="3"/>
+      <c r="F86" s="4"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="4"/>
+    </row>
+    <row r="87" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E87" s="3"/>
+      <c r="F87" s="4"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="4"/>
+    </row>
+    <row r="88" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E88" s="3"/>
+      <c r="F88" s="4"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="4"/>
+    </row>
+    <row r="89" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E89" s="3"/>
+      <c r="F89" s="4"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="4"/>
+    </row>
+    <row r="90" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E90" s="3"/>
+      <c r="F90" s="4"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="4"/>
+    </row>
+    <row r="91" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E91" s="3"/>
+      <c r="F91" s="4"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="4"/>
+    </row>
+    <row r="92" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E92" s="3"/>
+      <c r="F92" s="4"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="4"/>
+    </row>
+    <row r="93" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E93" s="3"/>
+      <c r="F93" s="4"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="4"/>
+    </row>
+    <row r="94" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E94" s="3"/>
+      <c r="F94" s="4"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="4"/>
+    </row>
+    <row r="95" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E95" s="3"/>
+      <c r="F95" s="4"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="4"/>
+    </row>
+    <row r="96" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E96" s="3"/>
+      <c r="F96" s="4"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="4"/>
+    </row>
+    <row r="97" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E97" s="3"/>
+      <c r="F97" s="4"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="4"/>
+    </row>
+    <row r="98" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E98" s="3"/>
+      <c r="F98" s="4"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="4"/>
+    </row>
+    <row r="99" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E99" s="3"/>
+      <c r="F99" s="4"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="4"/>
+    </row>
+    <row r="100" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E100" s="3"/>
+      <c r="F100" s="4"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E97" xr:uid="{40B0490A-D9B0-4ED1-83CB-6FED982253CF}">
+    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G97" xr:uid="{40B0490A-D9B0-4ED1-83CB-6FED982253CF}">
       <formula1>60</formula1>
     </dataValidation>
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D97" xr:uid="{36ED1939-987C-49F0-898A-DC4C0D21810F}">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F97" xr:uid="{36ED1939-987C-49F0-898A-DC4C0D21810F}">
       <formula1>0</formula1>
       <formula2>0.999988425925926</formula2>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F97 C2:C97" xr:uid="{6783D32D-0876-411E-BF4C-3C0E01BC8E9C}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H97 E2:E97" xr:uid="{6783D32D-0876-411E-BF4C-3C0E01BC8E9C}">
       <formula1>44562</formula1>
       <formula2>44926</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H97" xr:uid="{77F5C645-CD51-4AFD-9FCC-469C229AAEC9}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J97" xr:uid="{77F5C645-CD51-4AFD-9FCC-469C229AAEC9}">
       <formula1>1</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -1732,7 +1754,7 @@
           <x14:formula1>
             <xm:f>E_14_GRUPOS_Programas!$A$2:$A$27</xm:f>
           </x14:formula1>
-          <xm:sqref>A118:A147</xm:sqref>
+          <xm:sqref>A118:C147</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1741,18 +1763,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1870,18 +1892,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA352A83-CB83-418A-87A4-DE7F5968277D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71B673A6-67BD-4B56-9F5E-EC37B682B41D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71B673A6-67BD-4B56-9F5E-EC37B682B41D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA352A83-CB83-418A-87A4-DE7F5968277D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/src/assets/files/15.CalendarioAnual.xlsx
+++ b/src/assets/files/15.CalendarioAnual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avictoria\Documents\Proyectos\AgendaDigital\ARCHIVOS PRUEBA\oficiales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC819E8-84D9-412D-8933-17EEC8A12A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31565EE0-38EC-47F7-B4BE-60C8F6608721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="21756" windowHeight="10836" activeTab="2" xr2:uid="{76E7FC68-D242-465E-8EB4-3CC40106161F}"/>
+    <workbookView xWindow="888" yWindow="1752" windowWidth="19848" windowHeight="9972" activeTab="2" xr2:uid="{76E7FC68-D242-465E-8EB4-3CC40106161F}"/>
   </bookViews>
   <sheets>
     <sheet name="E_14_GRUPOS_Programas" sheetId="1" r:id="rId1"/>
@@ -66,9 +66,6 @@
     <t>Trab_Social_01</t>
   </si>
   <si>
-    <t>UBICACIÓN</t>
-  </si>
-  <si>
     <t>FECHA INICIO</t>
   </si>
   <si>
@@ -271,6 +268,9 @@
   </si>
   <si>
     <t>100</t>
+  </si>
+  <si>
+    <t>DESCRIPCION COMPLETA DE UBICACIÓN</t>
   </si>
 </sst>
 </file>
@@ -644,13 +644,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
@@ -658,296 +658,296 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
         <v>39</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>40</v>
       </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
         <v>43</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>44</v>
       </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
         <v>46</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>47</v>
       </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
         <v>49</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>50</v>
       </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
         <v>52</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>53</v>
       </c>
-      <c r="C13" t="s">
-        <v>54</v>
-      </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
         <v>55</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>56</v>
       </c>
-      <c r="C14" t="s">
-        <v>57</v>
-      </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
         <v>56</v>
       </c>
-      <c r="C16" t="s">
-        <v>57</v>
-      </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
         <v>60</v>
       </c>
-      <c r="B17" t="s">
-        <v>61</v>
-      </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
         <v>56</v>
       </c>
-      <c r="C18" t="s">
-        <v>57</v>
-      </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
         <v>63</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>64</v>
       </c>
-      <c r="C19" t="s">
-        <v>65</v>
-      </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
         <v>66</v>
       </c>
-      <c r="B20" t="s">
-        <v>67</v>
-      </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
         <v>68</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>69</v>
       </c>
-      <c r="C21" t="s">
-        <v>70</v>
-      </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
         <v>71</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>72</v>
       </c>
-      <c r="C22" t="s">
-        <v>73</v>
-      </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1022,13 +1022,13 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1059,7 +1059,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1075,52 +1075,52 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="3">
         <f ca="1">TODAY()+1</f>
-        <v>44765</v>
+        <v>44771</v>
       </c>
       <c r="F2" s="4">
         <v>0.41666666666666669</v>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="H2" s="3">
         <f ca="1">IF(AND(HOUR(F2)=23,HOUR(I2)=0),E2+1,E2)</f>
-        <v>44765</v>
+        <v>44771</v>
       </c>
       <c r="I2" s="4">
         <f>F2+VALUE("00:"&amp;G2&amp;":00")</f>
@@ -1763,18 +1763,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1892,18 +1892,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71B673A6-67BD-4B56-9F5E-EC37B682B41D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA352A83-CB83-418A-87A4-DE7F5968277D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA352A83-CB83-418A-87A4-DE7F5968277D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71B673A6-67BD-4B56-9F5E-EC37B682B41D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
